--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value784.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value784.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.015278440152743</v>
+        <v>1.790271878242493</v>
       </c>
       <c r="B1">
-        <v>3.583946619555666</v>
+        <v>4.180408000946045</v>
       </c>
       <c r="C1">
-        <v>3.218657204120001</v>
+        <v>1.949701070785522</v>
       </c>
       <c r="D1">
-        <v>2.183207742459698</v>
+        <v>0.8850273489952087</v>
       </c>
       <c r="E1">
-        <v>1.214003046061828</v>
+        <v>0.4776319265365601</v>
       </c>
     </row>
   </sheetData>
